--- a/Code/Results/Cases/Case_5_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.03360788629368</v>
+        <v>0.4423792296040858</v>
       </c>
       <c r="C2">
-        <v>0.1466449438430431</v>
+        <v>0.04231202262400302</v>
       </c>
       <c r="D2">
-        <v>0.2033233391431963</v>
+        <v>0.1787246208188265</v>
       </c>
       <c r="E2">
-        <v>0.1699855747977566</v>
+        <v>0.1640199045123225</v>
       </c>
       <c r="F2">
-        <v>0.8707751930336372</v>
+        <v>1.578264622813151</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1863977882620418</v>
+        <v>0.1910775826062974</v>
       </c>
       <c r="K2">
-        <v>1.085068775827665</v>
+        <v>0.4076749453711557</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.008428893667485</v>
+        <v>3.9257739601521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8976550917185193</v>
+        <v>0.4028768011925195</v>
       </c>
       <c r="C3">
-        <v>0.1303288688677924</v>
+        <v>0.03704680571156871</v>
       </c>
       <c r="D3">
-        <v>0.1786697398325288</v>
+        <v>0.1726011840276698</v>
       </c>
       <c r="E3">
-        <v>0.1509606887580048</v>
+        <v>0.1597661717657815</v>
       </c>
       <c r="F3">
-        <v>0.841478071140088</v>
+        <v>1.582086128929888</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1671207354746187</v>
+        <v>0.1871676593355787</v>
       </c>
       <c r="K3">
-        <v>0.9436396469720023</v>
+        <v>0.3655392386035885</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.987315424430903</v>
+        <v>3.949525278875143</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8144252000658412</v>
+        <v>0.3787075689793085</v>
       </c>
       <c r="C4">
-        <v>0.1203045468585344</v>
+        <v>0.03379939988658975</v>
       </c>
       <c r="D4">
-        <v>0.1636464183268629</v>
+        <v>0.1689111441245785</v>
       </c>
       <c r="E4">
-        <v>0.1394391983443555</v>
+        <v>0.1572353702693228</v>
       </c>
       <c r="F4">
-        <v>0.8251478917408619</v>
+        <v>1.58528031314134</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1555215585149483</v>
+        <v>0.1848750716527832</v>
       </c>
       <c r="K4">
-        <v>0.8569602978875537</v>
+        <v>0.3396974074448451</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.97866990442273</v>
+        <v>3.966251166974217</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7805558717226972</v>
+        <v>0.368880430009483</v>
       </c>
       <c r="C5">
-        <v>0.1162166770070456</v>
+        <v>0.03247247588018354</v>
       </c>
       <c r="D5">
-        <v>0.1575499896105299</v>
+        <v>0.1674250754426936</v>
       </c>
       <c r="E5">
-        <v>0.1347809011608518</v>
+        <v>0.1562244653391573</v>
       </c>
       <c r="F5">
-        <v>0.8188902271491258</v>
+        <v>1.586795165354474</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1508497785515246</v>
+        <v>0.1839680236684913</v>
       </c>
       <c r="K5">
-        <v>0.821663702178455</v>
+        <v>0.3291746831738465</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.976184337423135</v>
+        <v>3.973605674330756</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7749343656284964</v>
+        <v>0.3672499869540218</v>
       </c>
       <c r="C6">
-        <v>0.1155376786528564</v>
+        <v>0.03225192722202053</v>
       </c>
       <c r="D6">
-        <v>0.1565391499359805</v>
+        <v>0.1671793841977518</v>
       </c>
       <c r="E6">
-        <v>0.1340095214281334</v>
+        <v>0.1560578398908419</v>
       </c>
       <c r="F6">
-        <v>0.8178745600563957</v>
+        <v>1.587059582515401</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1500772231763037</v>
+        <v>0.1838190522284648</v>
       </c>
       <c r="K6">
-        <v>0.8158039041746292</v>
+        <v>0.3274278948557594</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.97583291060424</v>
+        <v>3.974859408084541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8139682522453029</v>
+        <v>0.3785749468726465</v>
       </c>
       <c r="C7">
-        <v>0.1202494297476164</v>
+        <v>0.03378151891638481</v>
       </c>
       <c r="D7">
-        <v>0.1635640995479264</v>
+        <v>0.1688910308653675</v>
       </c>
       <c r="E7">
-        <v>0.1393762302612664</v>
+        <v>0.1572216541202458</v>
       </c>
       <c r="F7">
-        <v>0.8250619168698776</v>
+        <v>1.585299879721866</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1554583365786257</v>
+        <v>0.184862728737258</v>
       </c>
       <c r="K7">
-        <v>0.8564841884589214</v>
+        <v>0.3395554610234512</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.978632244227114</v>
+        <v>3.966348172011095</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9866714965608878</v>
+        <v>0.4287413743881245</v>
       </c>
       <c r="C8">
-        <v>0.1410196165747948</v>
+        <v>0.04049963822154723</v>
       </c>
       <c r="D8">
-        <v>0.1947972405106242</v>
+        <v>0.1765988398988725</v>
       </c>
       <c r="E8">
-        <v>0.1633905083032516</v>
+        <v>0.1625364309417492</v>
       </c>
       <c r="F8">
-        <v>0.8603169873876269</v>
+        <v>1.579406332968901</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1796990066051123</v>
+        <v>0.1897070061627559</v>
       </c>
       <c r="K8">
-        <v>1.036262361661556</v>
+        <v>0.3931407266033204</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.000222864909688</v>
+        <v>3.933518635278062</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.327992766554843</v>
+        <v>0.5277767394654518</v>
       </c>
       <c r="C9">
-        <v>0.1817670181014535</v>
+        <v>0.05355572955569698</v>
       </c>
       <c r="D9">
-        <v>0.2570967366306007</v>
+        <v>0.1922636791973531</v>
       </c>
       <c r="E9">
-        <v>0.2119154946071546</v>
+        <v>0.1736000934153026</v>
       </c>
       <c r="F9">
-        <v>0.9435689380328682</v>
+        <v>1.574576491666562</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2293386044144796</v>
+        <v>0.2000647204693422</v>
       </c>
       <c r="K9">
-        <v>1.390755927767856</v>
+        <v>0.4984368148983549</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079135729119628</v>
+        <v>3.886149601908329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.58144302248013</v>
+        <v>0.60092241782732</v>
       </c>
       <c r="C10">
-        <v>0.2118167821760721</v>
+        <v>0.06307327762745274</v>
       </c>
       <c r="D10">
-        <v>0.3037296244749683</v>
+        <v>0.2041041074354268</v>
       </c>
       <c r="E10">
-        <v>0.2486870854293528</v>
+        <v>0.1821188158427134</v>
       </c>
       <c r="F10">
-        <v>1.014762729955081</v>
+        <v>1.57513259589642</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2674248240769685</v>
+        <v>0.2081990403756038</v>
       </c>
       <c r="K10">
-        <v>1.653441874945344</v>
+        <v>0.575910493964841</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.162832795971667</v>
+        <v>3.861734003133478</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697583528096601</v>
+        <v>0.6342785473484867</v>
       </c>
       <c r="C11">
-        <v>0.225536654795178</v>
+        <v>0.06738630401692092</v>
       </c>
       <c r="D11">
-        <v>0.3251840696845392</v>
+        <v>0.2095618957753089</v>
       </c>
       <c r="E11">
-        <v>0.2657178110895018</v>
+        <v>0.1860788460550751</v>
       </c>
       <c r="F11">
-        <v>1.049668639280355</v>
+        <v>1.576277746034719</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2851821491396578</v>
+        <v>0.2120138081150316</v>
       </c>
       <c r="K11">
-        <v>1.773685190779105</v>
+        <v>0.6111762820209492</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.207313247676382</v>
+        <v>3.852885921631923</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.741707117748035</v>
+        <v>0.6469209721408902</v>
       </c>
       <c r="C12">
-        <v>0.2307414341097882</v>
+        <v>0.06901709096939612</v>
       </c>
       <c r="D12">
-        <v>0.3333476173837795</v>
+        <v>0.2116388137232406</v>
       </c>
       <c r="E12">
-        <v>0.2722157532543079</v>
+        <v>0.187590571865762</v>
       </c>
       <c r="F12">
-        <v>1.063279502591371</v>
+        <v>1.576839710641721</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2919756221818659</v>
+        <v>0.2134748211788775</v>
       </c>
       <c r="K12">
-        <v>1.819348008183368</v>
+        <v>0.6245333086611424</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.225152012118855</v>
+        <v>3.849860459284002</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.7321975493455</v>
+        <v>0.6441977116143107</v>
       </c>
       <c r="C13">
-        <v>0.229620039029399</v>
+        <v>0.06866598264389268</v>
       </c>
       <c r="D13">
-        <v>0.3315876307374879</v>
+        <v>0.2111910616671793</v>
       </c>
       <c r="E13">
-        <v>0.2708140490533282</v>
+        <v>0.1872644551427953</v>
       </c>
       <c r="F13">
-        <v>1.060330182221051</v>
+        <v>1.576712973964078</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2905093317435075</v>
+        <v>0.2131594347294055</v>
       </c>
       <c r="K13">
-        <v>1.809507584516865</v>
+        <v>0.6216565264165865</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.221264627814037</v>
+        <v>3.850497582169453</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.70121058881719</v>
+        <v>0.6353184264411027</v>
       </c>
       <c r="C14">
-        <v>0.2259646544747795</v>
+        <v>0.06752051966215333</v>
       </c>
       <c r="D14">
-        <v>0.3258548763269289</v>
+        <v>0.2097325618451293</v>
       </c>
       <c r="E14">
-        <v>0.2662513920624363</v>
+        <v>0.1862029734568011</v>
       </c>
       <c r="F14">
-        <v>1.050780359193809</v>
+        <v>1.576321407300881</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857396237011613</v>
+        <v>0.2121336770534725</v>
       </c>
       <c r="K14">
-        <v>1.777439174994612</v>
+        <v>0.6122751232827</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.208760469996236</v>
+        <v>3.852630497445659</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682249584430679</v>
+        <v>0.6298810470248952</v>
       </c>
       <c r="C15">
-        <v>0.2237269122633876</v>
+        <v>0.06681856739191971</v>
       </c>
       <c r="D15">
-        <v>0.3223486472058141</v>
+        <v>0.2088405099519548</v>
       </c>
       <c r="E15">
-        <v>0.2634631455341534</v>
+        <v>0.1855543658938927</v>
       </c>
       <c r="F15">
-        <v>1.044982907913024</v>
+        <v>1.576098273409187</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2828272657977777</v>
+        <v>0.2115075119383079</v>
       </c>
       <c r="K15">
-        <v>1.757813867254839</v>
+        <v>0.6065290683348508</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.201233173717014</v>
+        <v>3.853979318458386</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.57387182631598</v>
+        <v>0.5987441126297881</v>
       </c>
       <c r="C16">
-        <v>0.2109213444554712</v>
+        <v>0.06279107107090454</v>
       </c>
       <c r="D16">
-        <v>0.3023327569086973</v>
+        <v>0.2037488576576578</v>
       </c>
       <c r="E16">
-        <v>0.247580621843376</v>
+        <v>0.1818617211947213</v>
       </c>
       <c r="F16">
-        <v>1.012534796965269</v>
+        <v>1.575075712846569</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.266273621262286</v>
+        <v>0.2079520379316477</v>
       </c>
       <c r="K16">
-        <v>1.645600546023815</v>
+        <v>0.5736061943568131</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.160060984160481</v>
+        <v>3.862357723876926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.507617213567357</v>
+        <v>0.5796631481692032</v>
       </c>
       <c r="C17">
-        <v>0.2030798501334061</v>
+        <v>0.06031603404332486</v>
       </c>
       <c r="D17">
-        <v>0.2901185070628571</v>
+        <v>0.2006435314555404</v>
       </c>
       <c r="E17">
-        <v>0.2379184183889151</v>
+        <v>0.1796180931909319</v>
       </c>
       <c r="F17">
-        <v>0.9932951957028706</v>
+        <v>1.574676932284262</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2562339383945584</v>
+        <v>0.2058001690944309</v>
       </c>
       <c r="K17">
-        <v>1.576967518568239</v>
+        <v>0.5534144331505217</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.136494736017283</v>
+        <v>3.868076335990111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.469587390352331</v>
+        <v>0.5686960153501275</v>
       </c>
       <c r="C18">
-        <v>0.198574204245503</v>
+        <v>0.05889090493838012</v>
       </c>
       <c r="D18">
-        <v>0.2831155759638335</v>
+        <v>0.1988641682830234</v>
       </c>
       <c r="E18">
-        <v>0.2323891752670804</v>
+        <v>0.1783356043504654</v>
       </c>
       <c r="F18">
-        <v>0.9824642796222207</v>
+        <v>1.574531538433803</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2504995585120042</v>
+        <v>0.204573241924237</v>
       </c>
       <c r="K18">
-        <v>1.537560431769776</v>
+        <v>0.5418028320916903</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.123538304707097</v>
+        <v>3.871578110790551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.456723906062166</v>
+        <v>0.5649840785100366</v>
       </c>
       <c r="C19">
-        <v>0.1970493927777426</v>
+        <v>0.05840811644573307</v>
       </c>
       <c r="D19">
-        <v>0.2807482141745936</v>
+        <v>0.1982628672242441</v>
       </c>
       <c r="E19">
-        <v>0.2305217603601122</v>
+        <v>0.1779027488643194</v>
       </c>
       <c r="F19">
-        <v>0.978836621063266</v>
+        <v>1.574496732381164</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2485646899587266</v>
+        <v>0.2041596756995148</v>
       </c>
       <c r="K19">
-        <v>1.524229046602215</v>
+        <v>0.5378717342828168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.119252071524443</v>
+        <v>3.872800252813335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.514661893896175</v>
+        <v>0.5816935532509433</v>
       </c>
       <c r="C20">
-        <v>0.2039141021163005</v>
+        <v>0.0605796673150536</v>
       </c>
       <c r="D20">
-        <v>0.2914163862777031</v>
+        <v>0.2009734021541902</v>
       </c>
       <c r="E20">
-        <v>0.2389440214501732</v>
+        <v>0.1798561049879623</v>
       </c>
       <c r="F20">
-        <v>0.995318729075592</v>
+        <v>1.574710691940723</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2572984717053544</v>
+        <v>0.2060281245398414</v>
       </c>
       <c r="K20">
-        <v>1.584266345647563</v>
+        <v>0.5555636609011003</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.138940969843645</v>
+        <v>3.867445576396051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.710308124386529</v>
+        <v>0.6379261888495762</v>
       </c>
       <c r="C21">
-        <v>0.2270380573276327</v>
+        <v>0.06785703739033977</v>
       </c>
       <c r="D21">
-        <v>0.3275376228330771</v>
+        <v>0.2101606834274463</v>
       </c>
       <c r="E21">
-        <v>0.2675901879844673</v>
+        <v>0.1865144270463261</v>
       </c>
       <c r="F21">
-        <v>1.053574460352152</v>
+        <v>1.576432937108848</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2871386664720887</v>
+        <v>0.2124345207683547</v>
       </c>
       <c r="K21">
-        <v>1.786854751518149</v>
+        <v>0.6150306020811911</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.212405624790705</v>
+        <v>3.851995182507693</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.839023444236744</v>
+        <v>0.6747423798062187</v>
       </c>
       <c r="C22">
-        <v>0.2422066025576299</v>
+        <v>0.07259882822218344</v>
       </c>
       <c r="D22">
-        <v>0.3513758874659061</v>
+        <v>0.2162243408207587</v>
       </c>
       <c r="E22">
-        <v>0.2865991123658276</v>
+        <v>0.1909368123763286</v>
       </c>
       <c r="F22">
-        <v>1.093953041990872</v>
+        <v>1.578306489725179</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3070477595760224</v>
+        <v>0.2167173100586695</v>
       </c>
       <c r="K22">
-        <v>1.920023045380219</v>
+        <v>0.6539107793159928</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.266256923244043</v>
+        <v>3.843792616769122</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.770240144890039</v>
+        <v>0.6550871370451716</v>
       </c>
       <c r="C23">
-        <v>0.2341050047628528</v>
+        <v>0.07006938897283987</v>
       </c>
       <c r="D23">
-        <v>0.3386302234723786</v>
+        <v>0.2129826695103674</v>
       </c>
       <c r="E23">
-        <v>0.2764256140818162</v>
+        <v>0.1885700412286226</v>
       </c>
       <c r="F23">
-        <v>1.072180643168537</v>
+        <v>1.577238091639529</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2963821956470838</v>
+        <v>0.2144227391765554</v>
       </c>
       <c r="K23">
-        <v>1.848870885964772</v>
+        <v>0.6331585183455957</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.236955434078965</v>
+        <v>3.847996968989037</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.511476806088012</v>
+        <v>0.5807755984493497</v>
       </c>
       <c r="C24">
-        <v>0.203536929063759</v>
+        <v>0.06046048555121786</v>
       </c>
       <c r="D24">
-        <v>0.2908295556105003</v>
+        <v>0.2008242491326229</v>
       </c>
       <c r="E24">
-        <v>0.2384802666861887</v>
+        <v>0.1797484767929589</v>
       </c>
       <c r="F24">
-        <v>0.9944031749319038</v>
+        <v>1.574695167948448</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2568170797098048</v>
+        <v>0.2059250340771683</v>
       </c>
       <c r="K24">
-        <v>1.580966388852659</v>
+        <v>0.5545920046108677</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.137833188724699</v>
+        <v>3.867730076011384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235267104927573</v>
+        <v>0.5009162959379978</v>
       </c>
       <c r="C25">
-        <v>0.1707318703153504</v>
+        <v>0.05003664357511184</v>
       </c>
       <c r="D25">
-        <v>0.2401086438606654</v>
+        <v>0.1879674467499939</v>
       </c>
       <c r="E25">
-        <v>0.1986103204470808</v>
+        <v>0.1705384921364796</v>
       </c>
       <c r="F25">
-        <v>0.919394696403927</v>
+        <v>1.57516252640464</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2156515048997107</v>
+        <v>0.1971706747311117</v>
       </c>
       <c r="K25">
-        <v>1.294543439089693</v>
+        <v>0.4699303097600875</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.053532881714148</v>
+        <v>3.89714143565709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_225/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4423792296040858</v>
+        <v>1.033607886293737</v>
       </c>
       <c r="C2">
-        <v>0.04231202262400302</v>
+        <v>0.1466449438430431</v>
       </c>
       <c r="D2">
-        <v>0.1787246208188265</v>
+        <v>0.2033233391432816</v>
       </c>
       <c r="E2">
-        <v>0.1640199045123225</v>
+        <v>0.1699855747977921</v>
       </c>
       <c r="F2">
-        <v>1.578264622813151</v>
+        <v>0.8707751930336229</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1910775826062974</v>
+        <v>0.1863977882620702</v>
       </c>
       <c r="K2">
-        <v>0.4076749453711557</v>
+        <v>1.085068775827637</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.9257739601521</v>
+        <v>2.008428893667372</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4028768011925195</v>
+        <v>0.8976550917185477</v>
       </c>
       <c r="C3">
-        <v>0.03704680571156871</v>
+        <v>0.1303288688677213</v>
       </c>
       <c r="D3">
-        <v>0.1726011840276698</v>
+        <v>0.178669739832543</v>
       </c>
       <c r="E3">
-        <v>0.1597661717657815</v>
+        <v>0.1509606887579977</v>
       </c>
       <c r="F3">
-        <v>1.582086128929888</v>
+        <v>0.8414780711400809</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1871676593355787</v>
+        <v>0.1671207354746329</v>
       </c>
       <c r="K3">
-        <v>0.3655392386035885</v>
+        <v>0.9436396469719455</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.949525278875143</v>
+        <v>1.987315424430847</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3787075689793085</v>
+        <v>0.8144252000656138</v>
       </c>
       <c r="C4">
-        <v>0.03379939988658975</v>
+        <v>0.1203045468588044</v>
       </c>
       <c r="D4">
-        <v>0.1689111441245785</v>
+        <v>0.1636464183268913</v>
       </c>
       <c r="E4">
-        <v>0.1572353702693228</v>
+        <v>0.1394391983443448</v>
       </c>
       <c r="F4">
-        <v>1.58528031314134</v>
+        <v>0.8251478917408548</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1848750716527832</v>
+        <v>0.1555215585150052</v>
       </c>
       <c r="K4">
-        <v>0.3396974074448451</v>
+        <v>0.8569602978876105</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.966251166974217</v>
+        <v>1.978669904422702</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.368880430009483</v>
+        <v>0.7805558717228678</v>
       </c>
       <c r="C5">
-        <v>0.03247247588018354</v>
+        <v>0.1162166770070741</v>
       </c>
       <c r="D5">
-        <v>0.1674250754426936</v>
+        <v>0.1575499896106152</v>
       </c>
       <c r="E5">
-        <v>0.1562244653391573</v>
+        <v>0.1347809011608518</v>
       </c>
       <c r="F5">
-        <v>1.586795165354474</v>
+        <v>0.8188902271491045</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1839680236684913</v>
+        <v>0.1508497785514322</v>
       </c>
       <c r="K5">
-        <v>0.3291746831738465</v>
+        <v>0.8216637021785118</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.973605674330756</v>
+        <v>1.976184337423092</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3672499869540218</v>
+        <v>0.7749343656283543</v>
       </c>
       <c r="C6">
-        <v>0.03225192722202053</v>
+        <v>0.1155376786528564</v>
       </c>
       <c r="D6">
-        <v>0.1671793841977518</v>
+        <v>0.156539149935881</v>
       </c>
       <c r="E6">
-        <v>0.1560578398908419</v>
+        <v>0.134009521428105</v>
       </c>
       <c r="F6">
-        <v>1.587059582515401</v>
+        <v>0.8178745600563744</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1838190522284648</v>
+        <v>0.1500772231764103</v>
       </c>
       <c r="K6">
-        <v>0.3274278948557594</v>
+        <v>0.8158039041747429</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.974859408084541</v>
+        <v>1.975832910604311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3785749468726465</v>
+        <v>0.8139682522452745</v>
       </c>
       <c r="C7">
-        <v>0.03378151891638481</v>
+        <v>0.1202494297477017</v>
       </c>
       <c r="D7">
-        <v>0.1688910308653675</v>
+        <v>0.1635640995476848</v>
       </c>
       <c r="E7">
-        <v>0.1572216541202458</v>
+        <v>0.1393762302612629</v>
       </c>
       <c r="F7">
-        <v>1.585299879721866</v>
+        <v>0.8250619168698705</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.184862728737258</v>
+        <v>0.1554583365786257</v>
       </c>
       <c r="K7">
-        <v>0.3395554610234512</v>
+        <v>0.8564841884589214</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.966348172011095</v>
+        <v>1.978632244227043</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4287413743881245</v>
+        <v>0.9866714965608026</v>
       </c>
       <c r="C8">
-        <v>0.04049963822154723</v>
+        <v>0.1410196165747806</v>
       </c>
       <c r="D8">
-        <v>0.1765988398988725</v>
+        <v>0.1947972405105673</v>
       </c>
       <c r="E8">
-        <v>0.1625364309417492</v>
+        <v>0.1633905083032801</v>
       </c>
       <c r="F8">
-        <v>1.579406332968901</v>
+        <v>0.860316987387634</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1897070061627559</v>
+        <v>0.1796990066051691</v>
       </c>
       <c r="K8">
-        <v>0.3931407266033204</v>
+        <v>1.036262361661699</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.933518635278062</v>
+        <v>2.000222864909659</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5277767394654518</v>
+        <v>1.327992766554786</v>
       </c>
       <c r="C9">
-        <v>0.05355572955569698</v>
+        <v>0.1817670181010982</v>
       </c>
       <c r="D9">
-        <v>0.1922636791973531</v>
+        <v>0.257096736630686</v>
       </c>
       <c r="E9">
-        <v>0.1736000934153026</v>
+        <v>0.2119154946071546</v>
       </c>
       <c r="F9">
-        <v>1.574576491666562</v>
+        <v>0.9435689380328682</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2000647204693422</v>
+        <v>0.2293386044144654</v>
       </c>
       <c r="K9">
-        <v>0.4984368148983549</v>
+        <v>1.390755927767884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.886149601908329</v>
+        <v>2.079135729119599</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.60092241782732</v>
+        <v>1.581443022480187</v>
       </c>
       <c r="C10">
-        <v>0.06307327762745274</v>
+        <v>0.21181678217593</v>
       </c>
       <c r="D10">
-        <v>0.2041041074354268</v>
+        <v>0.3037296244751815</v>
       </c>
       <c r="E10">
-        <v>0.1821188158427134</v>
+        <v>0.2486870854293528</v>
       </c>
       <c r="F10">
-        <v>1.57513259589642</v>
+        <v>1.014762729955066</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2081990403756038</v>
+        <v>0.2674248240768975</v>
       </c>
       <c r="K10">
-        <v>0.575910493964841</v>
+        <v>1.653441874945457</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.861734003133478</v>
+        <v>2.162832795971639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6342785473484867</v>
+        <v>1.697583528096601</v>
       </c>
       <c r="C11">
-        <v>0.06738630401692092</v>
+        <v>0.2255366547951922</v>
       </c>
       <c r="D11">
-        <v>0.2095618957753089</v>
+        <v>0.3251840696842976</v>
       </c>
       <c r="E11">
-        <v>0.1860788460550751</v>
+        <v>0.2657178110895018</v>
       </c>
       <c r="F11">
-        <v>1.576277746034719</v>
+        <v>1.049668639280355</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2120138081150316</v>
+        <v>0.2851821491396151</v>
       </c>
       <c r="K11">
-        <v>0.6111762820209492</v>
+        <v>1.773685190779219</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.852885921631923</v>
+        <v>2.207313247676382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6469209721408902</v>
+        <v>1.741707117747865</v>
       </c>
       <c r="C12">
-        <v>0.06901709096939612</v>
+        <v>0.2307414341096887</v>
       </c>
       <c r="D12">
-        <v>0.2116388137232406</v>
+        <v>0.3333476173837369</v>
       </c>
       <c r="E12">
-        <v>0.187590571865762</v>
+        <v>0.2722157532543079</v>
       </c>
       <c r="F12">
-        <v>1.576839710641721</v>
+        <v>1.063279502591385</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2134748211788775</v>
+        <v>0.2919756221818801</v>
       </c>
       <c r="K12">
-        <v>0.6245333086611424</v>
+        <v>1.819348008183482</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.849860459284002</v>
+        <v>2.225152012118826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6441977116143107</v>
+        <v>1.732197549345585</v>
       </c>
       <c r="C13">
-        <v>0.06866598264389268</v>
+        <v>0.22962003902947</v>
       </c>
       <c r="D13">
-        <v>0.2111910616671793</v>
+        <v>0.3315876307375021</v>
       </c>
       <c r="E13">
-        <v>0.1872644551427953</v>
+        <v>0.2708140490533069</v>
       </c>
       <c r="F13">
-        <v>1.576712973964078</v>
+        <v>1.060330182221037</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2131594347294055</v>
+        <v>0.2905093317435359</v>
       </c>
       <c r="K13">
-        <v>0.6216565264165865</v>
+        <v>1.809507584516894</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.850497582169453</v>
+        <v>2.221264627814094</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6353184264411027</v>
+        <v>1.701210588816849</v>
       </c>
       <c r="C14">
-        <v>0.06752051966215333</v>
+        <v>0.2259646544744385</v>
       </c>
       <c r="D14">
-        <v>0.2097325618451293</v>
+        <v>0.3258548763269857</v>
       </c>
       <c r="E14">
-        <v>0.1862029734568011</v>
+        <v>0.2662513920624221</v>
       </c>
       <c r="F14">
-        <v>1.576321407300881</v>
+        <v>1.050780359193809</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2121336770534725</v>
+        <v>0.2857396237011187</v>
       </c>
       <c r="K14">
-        <v>0.6122751232827</v>
+        <v>1.777439174994868</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.852630497445659</v>
+        <v>2.208760469996292</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6298810470248952</v>
+        <v>1.682249584430679</v>
       </c>
       <c r="C15">
-        <v>0.06681856739191971</v>
+        <v>0.2237269122631602</v>
       </c>
       <c r="D15">
-        <v>0.2088405099519548</v>
+        <v>0.3223486472056578</v>
       </c>
       <c r="E15">
-        <v>0.1855543658938927</v>
+        <v>0.2634631455341392</v>
       </c>
       <c r="F15">
-        <v>1.576098273409187</v>
+        <v>1.044982907913024</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2115075119383079</v>
+        <v>0.2828272657977919</v>
       </c>
       <c r="K15">
-        <v>0.6065290683348508</v>
+        <v>1.757813867254839</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.853979318458386</v>
+        <v>2.201233173716929</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5987441126297881</v>
+        <v>1.573871826316037</v>
       </c>
       <c r="C16">
-        <v>0.06279107107090454</v>
+        <v>0.2109213444555564</v>
       </c>
       <c r="D16">
-        <v>0.2037488576576578</v>
+        <v>0.3023327569085836</v>
       </c>
       <c r="E16">
-        <v>0.1818617211947213</v>
+        <v>0.247580621843376</v>
       </c>
       <c r="F16">
-        <v>1.575075712846569</v>
+        <v>1.012534796965284</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2079520379316477</v>
+        <v>0.2662736212624139</v>
       </c>
       <c r="K16">
-        <v>0.5736061943568131</v>
+        <v>1.645600546023672</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.862357723876926</v>
+        <v>2.160060984160481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5796631481692032</v>
+        <v>1.507617213567471</v>
       </c>
       <c r="C17">
-        <v>0.06031603404332486</v>
+        <v>0.203079850133193</v>
       </c>
       <c r="D17">
-        <v>0.2006435314555404</v>
+        <v>0.2901185070628713</v>
       </c>
       <c r="E17">
-        <v>0.1796180931909319</v>
+        <v>0.2379184183889436</v>
       </c>
       <c r="F17">
-        <v>1.574676932284262</v>
+        <v>0.9932951957028564</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2058001690944309</v>
+        <v>0.2562339383946579</v>
       </c>
       <c r="K17">
-        <v>0.5534144331505217</v>
+        <v>1.576967518568182</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.868076335990111</v>
+        <v>2.136494736017255</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5686960153501275</v>
+        <v>1.469587390352302</v>
       </c>
       <c r="C18">
-        <v>0.05889090493838012</v>
+        <v>0.1985742042455172</v>
       </c>
       <c r="D18">
-        <v>0.1988641682830234</v>
+        <v>0.2831155759638051</v>
       </c>
       <c r="E18">
-        <v>0.1783356043504654</v>
+        <v>0.2323891752670946</v>
       </c>
       <c r="F18">
-        <v>1.574531538433803</v>
+        <v>0.9824642796222065</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.204573241924237</v>
+        <v>0.2504995585120326</v>
       </c>
       <c r="K18">
-        <v>0.5418028320916903</v>
+        <v>1.53756043176972</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.871578110790551</v>
+        <v>2.123538304707012</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5649840785100366</v>
+        <v>1.456723906062138</v>
       </c>
       <c r="C19">
-        <v>0.05840811644573307</v>
+        <v>0.1970493927777568</v>
       </c>
       <c r="D19">
-        <v>0.1982628672242441</v>
+        <v>0.2807482141743947</v>
       </c>
       <c r="E19">
-        <v>0.1779027488643194</v>
+        <v>0.230521760360098</v>
       </c>
       <c r="F19">
-        <v>1.574496732381164</v>
+        <v>0.9788366210632518</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2041596756995148</v>
+        <v>0.2485646899586698</v>
       </c>
       <c r="K19">
-        <v>0.5378717342828168</v>
+        <v>1.524229046602102</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.872800252813335</v>
+        <v>2.119252071524471</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5816935532509433</v>
+        <v>1.514661893896204</v>
       </c>
       <c r="C20">
-        <v>0.0605796673150536</v>
+        <v>0.2039141021159736</v>
       </c>
       <c r="D20">
-        <v>0.2009734021541902</v>
+        <v>0.2914163862775894</v>
       </c>
       <c r="E20">
-        <v>0.1798561049879623</v>
+        <v>0.2389440214501946</v>
       </c>
       <c r="F20">
-        <v>1.574710691940723</v>
+        <v>0.9953187290755778</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2060281245398414</v>
+        <v>0.2572984717053401</v>
       </c>
       <c r="K20">
-        <v>0.5555636609011003</v>
+        <v>1.584266345647507</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.867445576396051</v>
+        <v>2.138940969843588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6379261888495762</v>
+        <v>1.710308124386756</v>
       </c>
       <c r="C21">
-        <v>0.06785703739033977</v>
+        <v>0.2270380573274053</v>
       </c>
       <c r="D21">
-        <v>0.2101606834274463</v>
+        <v>0.3275376228330344</v>
       </c>
       <c r="E21">
-        <v>0.1865144270463261</v>
+        <v>0.2675901879844744</v>
       </c>
       <c r="F21">
-        <v>1.576432937108848</v>
+        <v>1.053574460352124</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2124345207683547</v>
+        <v>0.2871386664720745</v>
       </c>
       <c r="K21">
-        <v>0.6150306020811911</v>
+        <v>1.786854751518177</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.851995182507693</v>
+        <v>2.212405624790648</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6747423798062187</v>
+        <v>1.83902344423683</v>
       </c>
       <c r="C22">
-        <v>0.07259882822218344</v>
+        <v>0.2422066025572747</v>
       </c>
       <c r="D22">
-        <v>0.2162243408207587</v>
+        <v>0.3513758874659203</v>
       </c>
       <c r="E22">
-        <v>0.1909368123763286</v>
+        <v>0.2865991123658347</v>
       </c>
       <c r="F22">
-        <v>1.578306489725179</v>
+        <v>1.093953041990858</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2167173100586695</v>
+        <v>0.3070477595761076</v>
       </c>
       <c r="K22">
-        <v>0.6539107793159928</v>
+        <v>1.920023045380191</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.843792616769122</v>
+        <v>2.26625692324393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6550871370451716</v>
+        <v>1.770240144890209</v>
       </c>
       <c r="C23">
-        <v>0.07006938897283987</v>
+        <v>0.2341050047631086</v>
       </c>
       <c r="D23">
-        <v>0.2129826695103674</v>
+        <v>0.3386302234722081</v>
       </c>
       <c r="E23">
-        <v>0.1885700412286226</v>
+        <v>0.276425614081802</v>
       </c>
       <c r="F23">
-        <v>1.577238091639529</v>
+        <v>1.072180643168522</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2144227391765554</v>
+        <v>0.2963821956471406</v>
       </c>
       <c r="K23">
-        <v>0.6331585183455957</v>
+        <v>1.848870885964772</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.847996968989037</v>
+        <v>2.236955434078993</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5807755984493497</v>
+        <v>1.511476806088012</v>
       </c>
       <c r="C24">
-        <v>0.06046048555121786</v>
+        <v>0.2035369290639863</v>
       </c>
       <c r="D24">
-        <v>0.2008242491326229</v>
+        <v>0.2908295556105003</v>
       </c>
       <c r="E24">
-        <v>0.1797484767929589</v>
+        <v>0.2384802666861958</v>
       </c>
       <c r="F24">
-        <v>1.574695167948448</v>
+        <v>0.9944031749318896</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2059250340771683</v>
+        <v>0.2568170797097622</v>
       </c>
       <c r="K24">
-        <v>0.5545920046108677</v>
+        <v>1.580966388852659</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.867730076011384</v>
+        <v>2.137833188724727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5009162959379978</v>
+        <v>1.235267104927431</v>
       </c>
       <c r="C25">
-        <v>0.05003664357511184</v>
+        <v>0.1707318703149951</v>
       </c>
       <c r="D25">
-        <v>0.1879674467499939</v>
+        <v>0.2401086438606654</v>
       </c>
       <c r="E25">
-        <v>0.1705384921364796</v>
+        <v>0.1986103204470737</v>
       </c>
       <c r="F25">
-        <v>1.57516252640464</v>
+        <v>0.9193946964038986</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1971706747311117</v>
+        <v>0.2156515048996681</v>
       </c>
       <c r="K25">
-        <v>0.4699303097600875</v>
+        <v>1.294543439089722</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.89714143565709</v>
+        <v>2.053532881714119</v>
       </c>
     </row>
   </sheetData>
